--- a/tree_ghg/GCREW_TreeGas_02_01_2019.xlsx
+++ b/tree_ghg/GCREW_TreeGas_02_01_2019.xlsx
@@ -145,9 +145,6 @@
     <t xml:space="preserve">Plug Height </t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>CNT129</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Tree vacuum - syringe pulled in</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -722,13 +722,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -790,16 +790,16 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -861,13 +861,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -929,13 +929,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -1065,13 +1065,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -1133,13 +1133,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I10" s="4">
         <v>12</v>
@@ -1201,13 +1201,13 @@
         <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I11" s="4">
         <v>12</v>
@@ -1269,16 +1269,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="6">
         <v>12</v>
@@ -1340,13 +1340,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6">
         <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I13" s="6">
         <v>12</v>
@@ -1408,13 +1408,13 @@
         <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I14" s="8">
         <v>12</v>
@@ -1476,16 +1476,16 @@
         <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="8">
         <v>1.5</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="8">
         <v>12</v>
